--- a/ISA/vaa_out/vaa_report_2025-10.xlsx
+++ b/ISA/vaa_out/vaa_report_2025-10.xlsx
@@ -90,7 +90,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -103,11 +103,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -495,7 +496,7 @@
     <col width="22" customWidth="1" min="9" max="9"/>
     <col width="22" customWidth="1" min="10" max="10"/>
     <col width="22" customWidth="1" min="11" max="11"/>
-    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
@@ -645,34 +646,34 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0103</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.0711</v>
+        <v>0.0737</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.1914</v>
+        <v>0.1962</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.2139</v>
+        <v>0.2047</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>98.33</v>
+        <v>1.02</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>940148.0654739738</v>
+        <v>944408.3742148429</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>932205.619875513</v>
+        <v>934750.4729871824</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>877750.5674161613</v>
+        <v>879545.6707533449</v>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>789108.4843781143</v>
+        <v>789526.2937164307</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>774494.2098765448</v>
+        <v>783910.0344517082</v>
       </c>
     </row>
     <row r="4">
@@ -717,34 +718,34 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.0149</v>
+        <v>0.0171</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.0941</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.1121</v>
+        <v>0.1043</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.252</v>
+        <v>0.2201</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>100.66</v>
+        <v>1.01</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>132597.1842707368</v>
+        <v>133248.2324160766</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>130655.4418402007</v>
+        <v>131012.1216334077</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>121873.3474347778</v>
+        <v>121784.9513834808</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>119226.0299928021</v>
+        <v>120662.8125</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>105908.0849985871</v>
+        <v>109210.3128278442</v>
       </c>
     </row>
     <row r="5">
@@ -789,34 +790,34 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.0064</v>
+        <v>0.0202</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.1121</v>
+        <v>0.1313</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.2124</v>
+        <v>0.2269</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.2475</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>120.95</v>
+        <v>1.47</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>75199.92396077886</v>
+        <v>76442.03484555054</v>
       </c>
       <c r="O5" s="5" t="n">
-        <v>74724.22178852838</v>
+        <v>74928.21344474796</v>
       </c>
       <c r="P5" s="5" t="n">
-        <v>67620.77406077273</v>
+        <v>67571.72798516694</v>
       </c>
       <c r="Q5" s="5" t="n">
-        <v>62026.6780990893</v>
+        <v>62303.2976102829</v>
       </c>
       <c r="R5" s="5" t="n">
-        <v>59681.93860408617</v>
+        <v>61277.43516431423</v>
       </c>
     </row>
     <row r="6">
@@ -861,34 +862,34 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.0232</v>
+        <v>0.0168</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.0522</v>
+        <v>0.0423</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.0296</v>
+        <v>0.0145</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.09630000000000001</v>
+        <v>0.0542</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>64.29000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>143074.3452958129</v>
+        <v>143030.6538859252</v>
       </c>
       <c r="O6" s="5" t="n">
-        <v>139828.0501291808</v>
+        <v>140665.7899475098</v>
       </c>
       <c r="P6" s="5" t="n">
-        <v>135978.5408717506</v>
+        <v>137230.7209849823</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>138954.8492771471</v>
+        <v>140979.7202205658</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>130507.2054190328</v>
+        <v>135678.8515895326</v>
       </c>
     </row>
     <row r="7">
@@ -933,34 +934,34 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>0.024</v>
+        <v>0.0176</v>
       </c>
       <c r="J7" s="4" t="n">
+        <v>0.0483</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="L7" s="4" t="n">
         <v>0.0593</v>
       </c>
-      <c r="K7" s="4" t="n">
-        <v>0.0534</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.1073</v>
-      </c>
       <c r="M7" s="3" t="n">
-        <v>73.90000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>159145.009760025</v>
+        <v>159159.5833071899</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>155415.1757482253</v>
+        <v>156409.1349342652</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>150241.1619946472</v>
+        <v>151827.6580148377</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>151084.2013551565</v>
+        <v>153736.5297794342</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>143723.7420352176</v>
+        <v>150250.3355011018</v>
       </c>
     </row>
     <row r="8">
@@ -1005,34 +1006,34 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.0255</v>
+        <v>0.0186</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.0544</v>
+        <v>0.044</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.0233</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0.1002</v>
+        <v>0.058</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>67.09</v>
+        <v>0.47</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>138006.1236721771</v>
+        <v>137862.582574768</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>134567.965066405</v>
+        <v>135347.8500703583</v>
       </c>
       <c r="P8" s="5" t="n">
-        <v>130889.5405934639</v>
+        <v>132054.3020500336</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>134863.3139441404</v>
+        <v>136779.662065506</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>125440.3466354264</v>
+        <v>130302.4266954744</v>
       </c>
     </row>
     <row r="9">
@@ -1077,34 +1078,34 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.0185</v>
+        <v>0.0122</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.0356</v>
+        <v>0.0261</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0.01</v>
+        <v>-0.0043</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0.0794</v>
+        <v>0.0378</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>46.41</v>
+        <v>0.28</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>117875.2020157836</v>
+        <v>117829.203019226</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>115730.1773404311</v>
+        <v>116405.3247407684</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>113826.3257716186</v>
+        <v>114827.4013346527</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>116708.6156492326</v>
+        <v>118342.1039104462</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>109201.3938572444</v>
+        <v>113539.0216177795</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1137,7 @@
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="21" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
@@ -1211,7 +1212,7 @@
         </is>
       </c>
       <c r="B9" s="8" t="n">
-        <v>0.9833</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="10"/>
@@ -1254,19 +1255,19 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>940148.0654739738</v>
+        <v>944408.3742148429</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>932205.619875513</v>
+        <v>934750.4729871824</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>877750.5674161613</v>
+        <v>879545.6707533449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>789108.4843781143</v>
+        <v>789526.2937164307</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>774494.2098765448</v>
+        <v>783910.0344517082</v>
       </c>
     </row>
     <row r="13">
@@ -1277,16 +1278,16 @@
       </c>
       <c r="B13" s="3" t="n"/>
       <c r="C13" s="10" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0103</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>0.0711</v>
+        <v>0.0737</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>0.1914</v>
+        <v>0.1962</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>0.2139</v>
+        <v>0.2047</v>
       </c>
     </row>
     <row r="14">
@@ -1316,17 +1317,17 @@
         </is>
       </c>
       <c r="B15" s="3" t="n"/>
-      <c r="C15" s="10" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="D15" s="10" t="n">
-        <v>0.2844</v>
-      </c>
-      <c r="E15" s="10" t="n">
-        <v>0.3828</v>
-      </c>
-      <c r="F15" s="10" t="n">
-        <v>0.2139</v>
+      <c r="C15" s="11" t="n">
+        <v>0.1236</v>
+      </c>
+      <c r="D15" s="11" t="n">
+        <v>0.2948</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>0.3924</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <v>0.2047</v>
       </c>
     </row>
     <row r="16">
@@ -1335,8 +1336,8 @@
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="10" t="n">
-        <v>0.9833</v>
+      <c r="F16" s="11" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="17"/>
@@ -1383,7 +1384,7 @@
         </is>
       </c>
       <c r="B21" s="8" t="n">
-        <v>1.0066</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="22"/>
@@ -1426,19 +1427,19 @@
         </is>
       </c>
       <c r="B24" s="5" t="n">
-        <v>132597.1842707368</v>
+        <v>133248.2324160766</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>130655.4418402007</v>
+        <v>131012.1216334077</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>121873.3474347778</v>
+        <v>121784.9513834808</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>119226.0299928021</v>
+        <v>120662.8125</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>105908.0849985871</v>
+        <v>109210.3128278442</v>
       </c>
     </row>
     <row r="25">
@@ -1449,16 +1450,16 @@
       </c>
       <c r="B25" s="3" t="n"/>
       <c r="C25" s="10" t="n">
-        <v>0.0149</v>
+        <v>0.0171</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.0941</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>0.1121</v>
+        <v>0.1043</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>0.252</v>
+        <v>0.2201</v>
       </c>
     </row>
     <row r="26">
@@ -1488,17 +1489,17 @@
         </is>
       </c>
       <c r="B27" s="3" t="n"/>
-      <c r="C27" s="10" t="n">
-        <v>0.1788</v>
-      </c>
-      <c r="D27" s="10" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="E27" s="10" t="n">
-        <v>0.2242</v>
-      </c>
-      <c r="F27" s="10" t="n">
-        <v>0.252</v>
+      <c r="C27" s="11" t="n">
+        <v>0.2052</v>
+      </c>
+      <c r="D27" s="11" t="n">
+        <v>0.3764</v>
+      </c>
+      <c r="E27" s="11" t="n">
+        <v>0.2086</v>
+      </c>
+      <c r="F27" s="11" t="n">
+        <v>0.2201</v>
       </c>
     </row>
     <row r="28">
@@ -1507,8 +1508,8 @@
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr"/>
-      <c r="F28" s="10" t="n">
-        <v>1.0066</v>
+      <c r="F28" s="11" t="n">
+        <v>1.01</v>
       </c>
     </row>
     <row r="29"/>
@@ -1555,7 +1556,7 @@
         </is>
       </c>
       <c r="B33" s="8" t="n">
-        <v>1.2095</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="34"/>
@@ -1598,19 +1599,19 @@
         </is>
       </c>
       <c r="B36" s="5" t="n">
-        <v>75199.92396077886</v>
+        <v>76442.03484555054</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>74724.22178852838</v>
+        <v>74928.21344474796</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>67620.77406077273</v>
+        <v>67571.72798516694</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>62026.6780990893</v>
+        <v>62303.2976102829</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>59681.93860408617</v>
+        <v>61277.43516431423</v>
       </c>
     </row>
     <row r="37">
@@ -1621,16 +1622,16 @@
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="10" t="n">
-        <v>0.0064</v>
+        <v>0.0202</v>
       </c>
       <c r="D37" s="10" t="n">
-        <v>0.1121</v>
+        <v>0.1313</v>
       </c>
       <c r="E37" s="10" t="n">
-        <v>0.2124</v>
+        <v>0.2269</v>
       </c>
       <c r="F37" s="10" t="n">
-        <v>0.26</v>
+        <v>0.2475</v>
       </c>
     </row>
     <row r="38">
@@ -1660,17 +1661,17 @@
         </is>
       </c>
       <c r="B39" s="3" t="n"/>
-      <c r="C39" s="10" t="n">
-        <v>0.07679999999999999</v>
-      </c>
-      <c r="D39" s="10" t="n">
-        <v>0.4484</v>
-      </c>
-      <c r="E39" s="10" t="n">
-        <v>0.4248</v>
-      </c>
-      <c r="F39" s="10" t="n">
-        <v>0.26</v>
+      <c r="C39" s="11" t="n">
+        <v>0.2424</v>
+      </c>
+      <c r="D39" s="11" t="n">
+        <v>0.5252</v>
+      </c>
+      <c r="E39" s="11" t="n">
+        <v>0.4538</v>
+      </c>
+      <c r="F39" s="11" t="n">
+        <v>0.2475</v>
       </c>
     </row>
     <row r="40">
@@ -1679,8 +1680,8 @@
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="10" t="n">
-        <v>1.2095</v>
+      <c r="F40" s="11" t="n">
+        <v>1.47</v>
       </c>
     </row>
     <row r="41"/>
@@ -1727,7 +1728,7 @@
         </is>
       </c>
       <c r="B45" s="8" t="n">
-        <v>0.6429</v>
+        <v>0.004500000000000001</v>
       </c>
     </row>
     <row r="46"/>
@@ -1770,19 +1771,19 @@
         </is>
       </c>
       <c r="B48" s="5" t="n">
-        <v>143074.3452958129</v>
+        <v>143030.6538859252</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>139828.0501291808</v>
+        <v>140665.7899475098</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>135978.5408717506</v>
+        <v>137230.7209849823</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>138954.8492771471</v>
+        <v>140979.7202205658</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>130507.2054190328</v>
+        <v>135678.8515895326</v>
       </c>
     </row>
     <row r="49">
@@ -1793,16 +1794,16 @@
       </c>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="10" t="n">
-        <v>0.0232</v>
+        <v>0.0168</v>
       </c>
       <c r="D49" s="10" t="n">
-        <v>0.0522</v>
+        <v>0.0423</v>
       </c>
       <c r="E49" s="10" t="n">
-        <v>0.0296</v>
+        <v>0.0145</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>0.09630000000000001</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="50">
@@ -1832,17 +1833,17 @@
         </is>
       </c>
       <c r="B51" s="3" t="n"/>
-      <c r="C51" s="10" t="n">
-        <v>0.2784</v>
-      </c>
-      <c r="D51" s="10" t="n">
-        <v>0.2088</v>
-      </c>
-      <c r="E51" s="10" t="n">
-        <v>0.0592</v>
-      </c>
-      <c r="F51" s="10" t="n">
-        <v>0.09630000000000001</v>
+      <c r="C51" s="11" t="n">
+        <v>0.2016</v>
+      </c>
+      <c r="D51" s="11" t="n">
+        <v>0.1692</v>
+      </c>
+      <c r="E51" s="11" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="F51" s="11" t="n">
+        <v>0.0542</v>
       </c>
     </row>
     <row r="52">
@@ -1851,8 +1852,8 @@
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr"/>
-      <c r="F52" s="10" t="n">
-        <v>0.6429</v>
+      <c r="F52" s="11" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="53"/>
@@ -1906,7 +1907,7 @@
         </is>
       </c>
       <c r="B58" s="8" t="n">
-        <v>0.7390000000000001</v>
+        <v>0.0053</v>
       </c>
     </row>
     <row r="59"/>
@@ -1949,19 +1950,19 @@
         </is>
       </c>
       <c r="B61" s="5" t="n">
-        <v>159145.009760025</v>
+        <v>159159.5833071899</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>155415.1757482253</v>
+        <v>156409.1349342652</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>150241.1619946472</v>
+        <v>151827.6580148377</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>151084.2013551565</v>
+        <v>153736.5297794342</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>143723.7420352176</v>
+        <v>150250.3355011018</v>
       </c>
     </row>
     <row r="62">
@@ -1972,16 +1973,16 @@
       </c>
       <c r="B62" s="3" t="n"/>
       <c r="C62" s="10" t="n">
-        <v>0.024</v>
+        <v>0.0176</v>
       </c>
       <c r="D62" s="10" t="n">
+        <v>0.0483</v>
+      </c>
+      <c r="E62" s="10" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="F62" s="10" t="n">
         <v>0.0593</v>
-      </c>
-      <c r="E62" s="10" t="n">
-        <v>0.0534</v>
-      </c>
-      <c r="F62" s="10" t="n">
-        <v>0.1073</v>
       </c>
     </row>
     <row r="63">
@@ -2011,17 +2012,17 @@
         </is>
       </c>
       <c r="B64" s="3" t="n"/>
-      <c r="C64" s="10" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="D64" s="10" t="n">
-        <v>0.2372</v>
-      </c>
-      <c r="E64" s="10" t="n">
-        <v>0.1068</v>
-      </c>
-      <c r="F64" s="10" t="n">
-        <v>0.1073</v>
+      <c r="C64" s="11" t="n">
+        <v>0.2112</v>
+      </c>
+      <c r="D64" s="11" t="n">
+        <v>0.1932</v>
+      </c>
+      <c r="E64" s="11" t="n">
+        <v>0.0706</v>
+      </c>
+      <c r="F64" s="11" t="n">
+        <v>0.0593</v>
       </c>
     </row>
     <row r="65">
@@ -2030,8 +2031,8 @@
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr"/>
-      <c r="F65" s="10" t="n">
-        <v>0.7390000000000001</v>
+      <c r="F65" s="11" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="66"/>
@@ -2078,7 +2079,7 @@
         </is>
       </c>
       <c r="B70" s="8" t="n">
-        <v>0.6709000000000001</v>
+        <v>0.004699999999999999</v>
       </c>
     </row>
     <row r="71"/>
@@ -2121,19 +2122,19 @@
         </is>
       </c>
       <c r="B73" s="5" t="n">
-        <v>138006.1236721771</v>
+        <v>137862.582574768</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>134567.965066405</v>
+        <v>135347.8500703583</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>130889.5405934639</v>
+        <v>132054.3020500336</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>134863.3139441404</v>
+        <v>136779.662065506</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>125440.3466354264</v>
+        <v>130302.4266954744</v>
       </c>
     </row>
     <row r="74">
@@ -2144,16 +2145,16 @@
       </c>
       <c r="B74" s="3" t="n"/>
       <c r="C74" s="10" t="n">
-        <v>0.0255</v>
+        <v>0.0186</v>
       </c>
       <c r="D74" s="10" t="n">
-        <v>0.0544</v>
+        <v>0.044</v>
       </c>
       <c r="E74" s="10" t="n">
-        <v>0.0233</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>0.1002</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="75">
@@ -2183,17 +2184,17 @@
         </is>
       </c>
       <c r="B76" s="3" t="n"/>
-      <c r="C76" s="10" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="D76" s="10" t="n">
-        <v>0.2176</v>
-      </c>
-      <c r="E76" s="10" t="n">
-        <v>0.0466</v>
-      </c>
-      <c r="F76" s="10" t="n">
-        <v>0.1002</v>
+      <c r="C76" s="11" t="n">
+        <v>0.2232</v>
+      </c>
+      <c r="D76" s="11" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="E76" s="11" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="F76" s="11" t="n">
+        <v>0.058</v>
       </c>
     </row>
     <row r="77">
@@ -2202,8 +2203,8 @@
       <c r="C77" s="3" t="inlineStr"/>
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr"/>
-      <c r="F77" s="10" t="n">
-        <v>0.6709000000000001</v>
+      <c r="F77" s="11" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="78"/>
@@ -2250,7 +2251,7 @@
         </is>
       </c>
       <c r="B82" s="8" t="n">
-        <v>0.4641</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="83"/>
@@ -2293,19 +2294,19 @@
         </is>
       </c>
       <c r="B85" s="5" t="n">
-        <v>117875.2020157836</v>
+        <v>117829.203019226</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>115730.1773404311</v>
+        <v>116405.3247407684</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>113826.3257716186</v>
+        <v>114827.4013346527</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>116708.6156492326</v>
+        <v>118342.1039104462</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>109201.3938572444</v>
+        <v>113539.0216177795</v>
       </c>
     </row>
     <row r="86">
@@ -2316,16 +2317,16 @@
       </c>
       <c r="B86" s="3" t="n"/>
       <c r="C86" s="10" t="n">
-        <v>0.0185</v>
+        <v>0.0122</v>
       </c>
       <c r="D86" s="10" t="n">
-        <v>0.0356</v>
+        <v>0.0261</v>
       </c>
       <c r="E86" s="10" t="n">
-        <v>0.01</v>
+        <v>-0.0043</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>0.0794</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="87">
@@ -2355,17 +2356,17 @@
         </is>
       </c>
       <c r="B88" s="3" t="n"/>
-      <c r="C88" s="10" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="D88" s="10" t="n">
-        <v>0.1424</v>
-      </c>
-      <c r="E88" s="10" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F88" s="10" t="n">
-        <v>0.0794</v>
+      <c r="C88" s="11" t="n">
+        <v>0.1464</v>
+      </c>
+      <c r="D88" s="11" t="n">
+        <v>0.1044</v>
+      </c>
+      <c r="E88" s="11" t="n">
+        <v>-0.0086</v>
+      </c>
+      <c r="F88" s="11" t="n">
+        <v>0.0378</v>
       </c>
     </row>
     <row r="89">
@@ -2374,8 +2375,8 @@
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="3" t="inlineStr"/>
-      <c r="F89" s="10" t="n">
-        <v>0.4641</v>
+      <c r="F89" s="11" t="n">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
